--- a/BalanceSheet/TTD_bal.xlsx
+++ b/BalanceSheet/TTD_bal.xlsx
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>433585000.0</v>
+        <v>1348000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>262124000.0</v>
+        <v>920000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-8429000.0</v>
+        <v>656000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-205967000.0</v>
+        <v>663000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>213164000.0</v>
+        <v>869000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>647547000.0</v>
@@ -1978,19 +1978,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-10240000.0</v>
+        <v>-50000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-9281000.0</v>
+        <v>-40000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-11697000.0</v>
+        <v>-31000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>-19000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-10490000.0</v>
+        <v>-19000000.0</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
